--- a/Sem6/Nuclear_Physics/Expt3/sca_data.xlsx
+++ b/Sem6/Nuclear_Physics/Expt3/sca_data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amukh\OneDrive\Desktop\Lab Reports\Sem6\Nuclear\Expt3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amukh\OneDrive\Desktop\Lab Reports\Sem6\Nuclear_Physics\Expt3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD07FB29-185C-4C4F-A8C2-5BB4C062D52D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8567C3D-E814-4DF8-BFB1-E71BA9F676C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="3" xr2:uid="{A78DD6EC-45B6-4A56-92E9-3C4CA1BDE9C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" firstSheet="1" activeTab="4" xr2:uid="{A78DD6EC-45B6-4A56-92E9-3C4CA1BDE9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="500V" sheetId="4" r:id="rId1"/>
     <sheet name="550v" sheetId="1" r:id="rId2"/>
     <sheet name="600v" sheetId="2" r:id="rId3"/>
     <sheet name="650V" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>v</t>
   </si>
@@ -40,6 +41,33 @@
   </si>
   <si>
     <t>Counts</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>Number of Peaks</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>TM/HM</t>
+  </si>
+  <si>
+    <t>FM/HM</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Net</t>
   </si>
 </sst>
 </file>
@@ -4849,7 +4877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5436624C-5496-4C01-A2D5-B81BD6CA69DB}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
@@ -5027,4 +5055,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD99E8CF-757E-4F55-A253-260E94ECB2FD}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>398</v>
+      </c>
+      <c r="B2">
+        <v>512</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>463.1764</v>
+      </c>
+      <c r="E2">
+        <v>46.867199999999997</v>
+      </c>
+      <c r="F2">
+        <v>1.7803</v>
+      </c>
+      <c r="G2">
+        <v>2.1577000000000002</v>
+      </c>
+      <c r="H2">
+        <v>57839</v>
+      </c>
+      <c r="I2">
+        <v>47546.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>463.1764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>46.867199999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1.7803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>2.1577000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>57839</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>47546.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>